--- a/config_1.12/fish_use_config.xlsx
+++ b/config_1.12/fish_use_config.xlsx
@@ -2205,70 +2205,6 @@
           </cell>
           <cell r="B183">
             <v>36</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>183</v>
-          </cell>
-          <cell r="B184">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>184</v>
-          </cell>
-          <cell r="B185">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>185</v>
-          </cell>
-          <cell r="B186">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>186</v>
-          </cell>
-          <cell r="B187">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>187</v>
-          </cell>
-          <cell r="B188">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>188</v>
-          </cell>
-          <cell r="B189">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>189</v>
-          </cell>
-          <cell r="B190">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>190</v>
-          </cell>
-          <cell r="B191">
-            <v>10</v>
           </cell>
         </row>
       </sheetData>
@@ -2900,11 +2836,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D190" sqref="D190"/>
+      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2939,9 +2875,9 @@
         <f>[1]use_fish!$B2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C2),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2953,9 +2889,9 @@
         <f>[1]use_fish!$B3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C3),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2967,9 +2903,9 @@
         <f>[1]use_fish!$B4</f>
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C4),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2981,9 +2917,9 @@
         <f>[1]use_fish!$B5</f>
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C5),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2995,9 +2931,9 @@
         <f>[1]use_fish!$B6</f>
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C6),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3009,9 +2945,9 @@
         <f>[1]use_fish!$B7</f>
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C7),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3023,9 +2959,9 @@
         <f>[1]use_fish!$B8</f>
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C8),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3037,9 +2973,9 @@
         <f>[1]use_fish!$B9</f>
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C9),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3051,9 +2987,9 @@
         <f>[1]use_fish!$B10</f>
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C10),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3065,9 +3001,9 @@
         <f>[1]use_fish!$B11</f>
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C11),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3079,9 +3015,9 @@
         <f>[1]use_fish!$B12</f>
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C12),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3093,9 +3029,9 @@
         <f>[1]use_fish!$B13</f>
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C13),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3107,9 +3043,9 @@
         <f>[1]use_fish!$B14</f>
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C14),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3121,9 +3057,9 @@
         <f>[1]use_fish!$B15</f>
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C15),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3135,9 +3071,9 @@
         <f>[1]use_fish!$B16</f>
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C16" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C16),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3149,9 +3085,9 @@
         <f>[1]use_fish!$B17</f>
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C17),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3163,9 +3099,9 @@
         <f>[1]use_fish!$B18</f>
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C18),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3177,9 +3113,9 @@
         <f>[1]use_fish!$B19</f>
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C19" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C19),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4616,9 +4552,9 @@
         <f>[1]use_fish!$B122</f>
         <v>20</v>
       </c>
-      <c r="C122" s="1" t="str">
+      <c r="C122" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C122),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -4630,9 +4566,9 @@
         <f>[1]use_fish!$B123</f>
         <v>21</v>
       </c>
-      <c r="C123" s="1" t="str">
+      <c r="C123" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C123),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -4644,9 +4580,9 @@
         <f>[1]use_fish!$B124</f>
         <v>28</v>
       </c>
-      <c r="C124" s="1" t="str">
+      <c r="C124" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C124),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -5448,101 +5384,6 @@
         <v>36</v>
       </c>
       <c r="C183" s="8"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="3">
-        <f>[1]use_fish!$A184</f>
-        <v>183</v>
-      </c>
-      <c r="B184" s="4">
-        <f>[1]use_fish!$B184</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="3">
-        <f>[1]use_fish!$A185</f>
-        <v>184</v>
-      </c>
-      <c r="B185" s="4">
-        <f>[1]use_fish!$B185</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="3">
-        <f>[1]use_fish!$A186</f>
-        <v>185</v>
-      </c>
-      <c r="B186" s="4">
-        <f>[1]use_fish!$B186</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="3">
-        <f>[1]use_fish!$A187</f>
-        <v>186</v>
-      </c>
-      <c r="B187" s="4">
-        <f>[1]use_fish!$B187</f>
-        <v>6</v>
-      </c>
-      <c r="C187" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="3">
-        <f>[1]use_fish!$A188</f>
-        <v>187</v>
-      </c>
-      <c r="B188" s="4">
-        <f>[1]use_fish!$B188</f>
-        <v>7</v>
-      </c>
-      <c r="C188" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="3">
-        <f>[1]use_fish!$A189</f>
-        <v>188</v>
-      </c>
-      <c r="B189" s="4">
-        <f>[1]use_fish!$B189</f>
-        <v>8</v>
-      </c>
-      <c r="C189" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="3">
-        <f>[1]use_fish!$A190</f>
-        <v>189</v>
-      </c>
-      <c r="B190" s="4">
-        <f>[1]use_fish!$B190</f>
-        <v>9</v>
-      </c>
-      <c r="C190" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="3">
-        <f>[1]use_fish!$A191</f>
-        <v>190</v>
-      </c>
-      <c r="B191" s="4">
-        <f>[1]use_fish!$B191</f>
-        <v>10</v>
-      </c>
-      <c r="C191" s="1">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
